--- a/data/Perguntas_chatbot_clean - 09.10_relacao FAQ perguntas users.xlsx
+++ b/data/Perguntas_chatbot_clean - 09.10_relacao FAQ perguntas users.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="relacao" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cópia de relacao" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="relacao_clean" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="relacao_extra_clean" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="relacao_half_clean" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="relacao_clean" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">relacao!$A$1:$G$111</definedName>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="179">
   <si>
     <t>PERGUNTA    WHATSAPP</t>
   </si>
@@ -17464,13 +17464,13 @@
     </row>
     <row r="22">
       <c r="A22" s="27">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="10">
-        <v>103.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="11">
         <v>21.0</v>
@@ -17481,13 +17481,13 @@
     </row>
     <row r="23">
       <c r="A23" s="27">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E23" s="11">
         <v>22.0</v>
@@ -17498,13 +17498,13 @@
     </row>
     <row r="24">
       <c r="A24" s="27">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="11">
         <v>23.0</v>
@@ -17515,13 +17515,13 @@
     </row>
     <row r="25">
       <c r="A25" s="27">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E25" s="11">
         <v>24.0</v>
@@ -17532,13 +17532,13 @@
     </row>
     <row r="26">
       <c r="A26" s="27">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E26" s="11">
         <v>25.0</v>
@@ -17549,10 +17549,10 @@
     </row>
     <row r="27">
       <c r="A27" s="27">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>106</v>
@@ -17565,15 +17565,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="27">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="E28" s="11">
         <v>27.0</v>
       </c>
